--- a/Code/Results/Cases/Case_3_88/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_88/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.72416852986732</v>
+        <v>14.70619329725741</v>
       </c>
       <c r="C2">
-        <v>14.55480290789613</v>
+        <v>14.4909633698582</v>
       </c>
       <c r="D2">
-        <v>4.809378516932857</v>
+        <v>4.477272852686781</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15.40182205757077</v>
+        <v>21.33687627677802</v>
       </c>
       <c r="G2">
-        <v>18.12177171769028</v>
+        <v>23.67168218289414</v>
       </c>
       <c r="H2">
-        <v>7.598100473227411</v>
+        <v>13.03675337168901</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.722735685158582</v>
+        <v>10.96841794683468</v>
       </c>
       <c r="M2">
-        <v>12.48176697669443</v>
+        <v>14.74867058625313</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.99404381944308</v>
+        <v>19.15831243127248</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.29888642156033</v>
+        <v>14.07629987912296</v>
       </c>
       <c r="C3">
-        <v>14.18006388274142</v>
+        <v>14.37572802513451</v>
       </c>
       <c r="D3">
-        <v>4.60871030177352</v>
+        <v>4.402320590760076</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.09910690384714</v>
+        <v>21.39530775670628</v>
       </c>
       <c r="G3">
-        <v>17.7379842779187</v>
+        <v>23.76620978859924</v>
       </c>
       <c r="H3">
-        <v>7.677675260826265</v>
+        <v>13.09548705294023</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.683361175708848</v>
+        <v>10.99141817284869</v>
       </c>
       <c r="M3">
-        <v>11.86052204356345</v>
+        <v>14.61902162110279</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.01888819164705</v>
+        <v>19.25513350257224</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.3719157734742</v>
+        <v>13.6750328188273</v>
       </c>
       <c r="C4">
-        <v>13.94749693326182</v>
+        <v>14.305666470245</v>
       </c>
       <c r="D4">
-        <v>4.480634082650634</v>
+        <v>4.355212562583664</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.93108833346882</v>
+        <v>21.43867056577712</v>
       </c>
       <c r="G4">
-        <v>17.53347565207628</v>
+        <v>23.83547918707503</v>
       </c>
       <c r="H4">
-        <v>7.733337263177782</v>
+        <v>13.13418788079078</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.663125988779277</v>
+        <v>11.00732654062118</v>
       </c>
       <c r="M4">
-        <v>11.46523882844318</v>
+        <v>14.54048877328303</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.05048425889568</v>
+        <v>19.32006879799615</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.98108508571098</v>
+        <v>13.50807138925405</v>
       </c>
       <c r="C5">
-        <v>13.85221157698775</v>
+        <v>14.27731210105228</v>
       </c>
       <c r="D5">
-        <v>4.427264111165476</v>
+        <v>4.335756732134951</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.86708965588552</v>
+        <v>21.45821541247282</v>
       </c>
       <c r="G5">
-        <v>17.45786437368216</v>
+        <v>23.86650950566243</v>
       </c>
       <c r="H5">
-        <v>7.757656684463187</v>
+        <v>13.15062174086928</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.655853722417733</v>
+        <v>11.01425840595383</v>
       </c>
       <c r="M5">
-        <v>11.30085282084098</v>
+        <v>14.50878228266646</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.06727449689715</v>
+        <v>19.34790548338527</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.91539657138247</v>
+        <v>13.48014629143442</v>
       </c>
       <c r="C6">
-        <v>13.83636191162704</v>
+        <v>14.27261636913073</v>
       </c>
       <c r="D6">
-        <v>4.418332392385177</v>
+        <v>4.332510899375257</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>14.85673173469076</v>
+        <v>21.46157375860825</v>
       </c>
       <c r="G6">
-        <v>17.44577187297796</v>
+        <v>23.87183068261236</v>
       </c>
       <c r="H6">
-        <v>7.761791670344369</v>
+        <v>13.15339060003992</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.654704447608887</v>
+        <v>11.01543655735379</v>
       </c>
       <c r="M6">
-        <v>11.27336275470133</v>
+        <v>14.5035361083456</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.07029320510257</v>
+        <v>19.35261065473207</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.36669792189993</v>
+        <v>13.67279476053798</v>
       </c>
       <c r="C7">
-        <v>13.94621380615754</v>
+        <v>14.30528324984317</v>
       </c>
       <c r="D7">
-        <v>4.479919020565481</v>
+        <v>4.354951203408718</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14.9302071658783</v>
+        <v>21.4389265774679</v>
       </c>
       <c r="G7">
-        <v>17.53242481743476</v>
+        <v>23.83588635472699</v>
       </c>
       <c r="H7">
-        <v>7.733658711323146</v>
+        <v>13.13440682982523</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.663023993639452</v>
+        <v>11.00741820800097</v>
       </c>
       <c r="M7">
-        <v>11.46303498927395</v>
+        <v>14.54005993396585</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.05069510661019</v>
+        <v>19.32043865205361</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.24346066441013</v>
+        <v>14.49213312342483</v>
       </c>
       <c r="C8">
-        <v>14.42617065060213</v>
+        <v>14.45109953723313</v>
       </c>
       <c r="D8">
-        <v>4.741223084137954</v>
+        <v>4.451663408048644</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>15.29373706676784</v>
+        <v>21.35546513478113</v>
       </c>
       <c r="G8">
-        <v>17.98293387143624</v>
+        <v>23.70193242752932</v>
       </c>
       <c r="H8">
-        <v>7.624080314565168</v>
+        <v>13.05645695417358</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.708331475227163</v>
+        <v>10.97597768704027</v>
       </c>
       <c r="M8">
-        <v>12.27052862464173</v>
+        <v>14.70376125345651</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.99910229477854</v>
+        <v>19.19055476764776</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.51490887108037</v>
+        <v>15.97599246812173</v>
       </c>
       <c r="C9">
-        <v>15.34325395547012</v>
+        <v>14.74157425103071</v>
       </c>
       <c r="D9">
-        <v>5.21337282174855</v>
+        <v>4.632086420997502</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>16.14800198977792</v>
+        <v>21.25152033527904</v>
       </c>
       <c r="G9">
-        <v>19.11537859100862</v>
+        <v>23.52921905097303</v>
       </c>
       <c r="H9">
-        <v>7.466680104494737</v>
+        <v>12.92454827597528</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.82915254011066</v>
+        <v>10.92849684508727</v>
       </c>
       <c r="M9">
-        <v>13.76629502214338</v>
+        <v>15.03209462964858</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.03607349314715</v>
+        <v>18.97959437726111</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.67300332653927</v>
+        <v>16.98262302469348</v>
       </c>
       <c r="C10">
-        <v>15.99692161534357</v>
+        <v>14.95643650700325</v>
       </c>
       <c r="D10">
-        <v>5.533907444485587</v>
+        <v>4.75825128703968</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>16.86029429667513</v>
+        <v>21.21195074082173</v>
       </c>
       <c r="G10">
-        <v>20.09863963245498</v>
+        <v>23.45825104729318</v>
       </c>
       <c r="H10">
-        <v>7.391179459632125</v>
+        <v>12.84043256773546</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.938285670311966</v>
+        <v>10.90225422584935</v>
       </c>
       <c r="M10">
-        <v>14.94067325544302</v>
+        <v>15.27616670910737</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.15854240190187</v>
+        <v>18.8515468459676</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.60239997058738</v>
+        <v>17.42101265523124</v>
       </c>
       <c r="C11">
-        <v>16.2889466445979</v>
+        <v>15.05421826370699</v>
       </c>
       <c r="D11">
-        <v>5.673728160375294</v>
+        <v>4.814109621368378</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.20213106166614</v>
+        <v>21.2020033240056</v>
       </c>
       <c r="G11">
-        <v>20.57795996168836</v>
+        <v>23.43830079486467</v>
       </c>
       <c r="H11">
-        <v>7.366728655030697</v>
+        <v>12.80495087477693</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.992517272218427</v>
+        <v>10.89219143357415</v>
       </c>
       <c r="M11">
-        <v>15.44780740913769</v>
+        <v>15.38747347858482</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.23713144009759</v>
+        <v>18.79920425900258</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.94689181573623</v>
+        <v>17.58411680271461</v>
       </c>
       <c r="C12">
-        <v>16.39869189542922</v>
+        <v>15.09122794981791</v>
       </c>
       <c r="D12">
-        <v>5.725795664173911</v>
+        <v>4.835029392180454</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.33407726167492</v>
+        <v>21.19939802161041</v>
       </c>
       <c r="G12">
-        <v>20.76397108263318</v>
+        <v>23.43253227416837</v>
       </c>
       <c r="H12">
-        <v>7.35899529896167</v>
+        <v>12.79191564846684</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.013724409122666</v>
+        <v>10.88865039138701</v>
       </c>
       <c r="M12">
-        <v>15.63598486902574</v>
+        <v>15.42963330105317</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.27034297516027</v>
+        <v>18.78023766700039</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.87302946471991</v>
+        <v>17.54911995010651</v>
       </c>
       <c r="C13">
-        <v>16.37509462388838</v>
+        <v>15.08325843640791</v>
       </c>
       <c r="D13">
-        <v>5.71462135856691</v>
+        <v>4.830534470592763</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>17.30555008751647</v>
+        <v>21.19990741406563</v>
       </c>
       <c r="G13">
-        <v>20.72371173166944</v>
+        <v>23.43369500792378</v>
       </c>
       <c r="H13">
-        <v>7.360591287535605</v>
+        <v>12.79470517476153</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.009127066954606</v>
+        <v>10.88940103377571</v>
       </c>
       <c r="M13">
-        <v>15.5956287282575</v>
+        <v>15.42055343478746</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.26303433854645</v>
+        <v>18.78428438304974</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.63089039929994</v>
+        <v>17.43449003712825</v>
       </c>
       <c r="C14">
-        <v>16.29799263257874</v>
+        <v>15.0572635724355</v>
       </c>
       <c r="D14">
-        <v>5.678029501848037</v>
+        <v>4.815835430113868</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.21293660703947</v>
+        <v>21.20176568816976</v>
       </c>
       <c r="G14">
-        <v>20.59317358827363</v>
+        <v>23.43779035217497</v>
       </c>
       <c r="H14">
-        <v>7.366061249577514</v>
+        <v>12.80387041955179</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.99424849030621</v>
+        <v>10.89189470923264</v>
       </c>
       <c r="M14">
-        <v>15.46336610093811</v>
+        <v>15.39094195284247</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.23979372078346</v>
+        <v>18.79762671405183</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.48160523927494</v>
+        <v>17.36389507012609</v>
       </c>
       <c r="C15">
-        <v>16.25065428822948</v>
+        <v>15.04133790006251</v>
       </c>
       <c r="D15">
-        <v>5.655500922553499</v>
+        <v>4.806801215331721</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>17.15653190643451</v>
+        <v>21.2030552920982</v>
       </c>
       <c r="G15">
-        <v>20.51379838761344</v>
+        <v>23.44053182429956</v>
       </c>
       <c r="H15">
-        <v>7.369613554454167</v>
+        <v>12.80953663040731</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.985222612742209</v>
+        <v>10.89345725223353</v>
       </c>
       <c r="M15">
-        <v>15.38184937719135</v>
+        <v>15.3728045439377</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.2260122350422</v>
+        <v>18.80591069352579</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.61121832483988</v>
+        <v>16.95357165625647</v>
       </c>
       <c r="C16">
-        <v>15.97772348890229</v>
+        <v>14.95004499569094</v>
       </c>
       <c r="D16">
-        <v>5.524647634171712</v>
+        <v>4.754568900194009</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>16.83830769221347</v>
+        <v>21.21276320378194</v>
       </c>
       <c r="G16">
-        <v>20.06795090929867</v>
+        <v>23.45980415674254</v>
       </c>
       <c r="H16">
-        <v>7.392985186503485</v>
+        <v>12.84280744252628</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.934834781379419</v>
+        <v>10.90294957606562</v>
       </c>
       <c r="M16">
-        <v>14.90698833000436</v>
+        <v>15.26889560084218</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.15388092021493</v>
+        <v>18.85508684867186</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.06391272821498</v>
+        <v>16.6967758162263</v>
       </c>
       <c r="C17">
-        <v>15.80887003916187</v>
+        <v>14.8940329141793</v>
       </c>
       <c r="D17">
-        <v>5.442824646515759</v>
+        <v>4.72212432266775</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>16.64760672316734</v>
+        <v>21.22078413467264</v>
       </c>
       <c r="G17">
-        <v>19.8025723233037</v>
+        <v>23.47479570512759</v>
       </c>
       <c r="H17">
-        <v>7.409929156108584</v>
+        <v>12.86393130893725</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.905106466569292</v>
+        <v>10.90925300263856</v>
       </c>
       <c r="M17">
-        <v>14.6087585733899</v>
+        <v>15.20520076485092</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.11560956360167</v>
+        <v>18.88677131040249</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.74418663090654</v>
+        <v>16.5472399012339</v>
       </c>
       <c r="C18">
-        <v>15.71125189351357</v>
+        <v>14.86182141438532</v>
       </c>
       <c r="D18">
-        <v>5.395199027087546</v>
+        <v>4.703319273850651</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>16.53960104476399</v>
+        <v>21.22615540297813</v>
       </c>
       <c r="G18">
-        <v>19.65295566072382</v>
+        <v>23.48457870664582</v>
       </c>
       <c r="H18">
-        <v>7.420599832554488</v>
+        <v>12.87634309901226</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.88843860572359</v>
+        <v>10.91305507157438</v>
       </c>
       <c r="M18">
-        <v>14.43467197271517</v>
+        <v>15.1685930208656</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.09574134857109</v>
+        <v>18.90555106364011</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.63508385674616</v>
+        <v>16.49629783954213</v>
       </c>
       <c r="C19">
-        <v>15.67811683895919</v>
+        <v>14.85091677221109</v>
       </c>
       <c r="D19">
-        <v>5.378977691323536</v>
+        <v>4.696927885347845</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16.50332262325393</v>
+        <v>21.22810405578979</v>
       </c>
       <c r="G19">
-        <v>19.60282001282188</v>
+        <v>23.48808991684674</v>
       </c>
       <c r="H19">
-        <v>7.424368531731153</v>
+        <v>12.88059047751364</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.882868834989932</v>
+        <v>10.91437270432498</v>
       </c>
       <c r="M19">
-        <v>14.37528987056002</v>
+        <v>15.15620395172276</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.08937747083874</v>
+        <v>18.91200485152608</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.12268409157857</v>
+        <v>16.72430270011761</v>
       </c>
       <c r="C20">
-        <v>15.82689687535363</v>
+        <v>14.89999513456758</v>
       </c>
       <c r="D20">
-        <v>5.451593274638847</v>
+        <v>4.725593072877668</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>16.6677336806761</v>
+        <v>21.21985182992863</v>
       </c>
       <c r="G20">
-        <v>19.83051026346269</v>
+        <v>23.47307964797385</v>
       </c>
       <c r="H20">
-        <v>7.4080289798324</v>
+        <v>12.86165552627315</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.908226396974546</v>
+        <v>10.90856372522611</v>
       </c>
       <c r="M20">
-        <v>14.64076961215012</v>
+        <v>15.2119785218031</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.11946045570266</v>
+        <v>18.8833408970825</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.70221410192518</v>
+        <v>17.46823913708468</v>
       </c>
       <c r="C21">
-        <v>16.32066263535916</v>
+        <v>15.0648995756765</v>
       </c>
       <c r="D21">
-        <v>5.688801411814208</v>
+        <v>4.820159297705676</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.24007207708092</v>
+        <v>21.20118832047323</v>
       </c>
       <c r="G21">
-        <v>20.63139446698105</v>
+        <v>23.43653888305844</v>
       </c>
       <c r="H21">
-        <v>7.364412346765437</v>
+        <v>12.80116747818271</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.998600397368361</v>
+        <v>10.89115494287815</v>
       </c>
       <c r="M21">
-        <v>15.50231940097066</v>
+        <v>15.39963951534959</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.2465251579726</v>
+        <v>18.79368452010938</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.69113851157734</v>
+        <v>17.93748084955352</v>
       </c>
       <c r="C22">
-        <v>16.63845375077435</v>
+        <v>15.17255750582746</v>
       </c>
       <c r="D22">
-        <v>5.838698206656549</v>
+        <v>4.880603183511375</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.62867175980004</v>
+        <v>21.1957620172745</v>
       </c>
       <c r="G22">
-        <v>21.18101231409304</v>
+        <v>23.42307306881672</v>
       </c>
       <c r="H22">
-        <v>7.344849089644826</v>
+        <v>12.76397226726849</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.061579740333684</v>
+        <v>10.88134816266319</v>
       </c>
       <c r="M22">
-        <v>16.04289259850395</v>
+        <v>15.52233376048807</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.34975272203928</v>
+        <v>18.74007130702717</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.16727542073599</v>
+        <v>17.68861773687623</v>
       </c>
       <c r="C23">
-        <v>16.46931365960578</v>
+        <v>15.11511694301634</v>
       </c>
       <c r="D23">
-        <v>5.759170014606938</v>
+        <v>4.848471386543288</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.41995852488802</v>
+        <v>21.19803766538405</v>
       </c>
       <c r="G23">
-        <v>20.88531032311822</v>
+        <v>23.42930337696423</v>
       </c>
       <c r="H23">
-        <v>7.354437228813143</v>
+        <v>12.7836099483501</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.027604744656414</v>
+        <v>10.88643854603946</v>
       </c>
       <c r="M23">
-        <v>15.75642508932577</v>
+        <v>15.45685490918886</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.29276161326436</v>
+        <v>18.76822816573546</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.09612936451001</v>
+        <v>16.71186370833373</v>
       </c>
       <c r="C24">
-        <v>15.81874862553986</v>
+        <v>14.89729964220689</v>
       </c>
       <c r="D24">
-        <v>5.4476307970314</v>
+        <v>4.724025324158154</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>16.65862919879688</v>
+        <v>21.22027095806581</v>
       </c>
       <c r="G24">
-        <v>19.81787031494466</v>
+        <v>23.47385185212836</v>
       </c>
       <c r="H24">
-        <v>7.408885162511041</v>
+        <v>12.86268357473326</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.90681455868036</v>
+        <v>10.90887479263196</v>
       </c>
       <c r="M24">
-        <v>14.62630561691286</v>
+        <v>15.20891426053707</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.11771283134036</v>
+        <v>18.88489003069503</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.6732925397682</v>
+        <v>15.58870228010518</v>
       </c>
       <c r="C25">
-        <v>15.09833026749618</v>
+        <v>14.66264321265982</v>
       </c>
       <c r="D25">
-        <v>5.090162158236207</v>
+        <v>4.584346748626676</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>15.90186344147746</v>
+        <v>21.27320239470431</v>
       </c>
       <c r="G25">
-        <v>18.78226715511988</v>
+        <v>23.56619251558729</v>
       </c>
       <c r="H25">
-        <v>7.502596839099204</v>
+        <v>12.95798758444864</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.792948888639794</v>
+        <v>10.93982397582363</v>
       </c>
       <c r="M25">
-        <v>13.35422944297452</v>
+        <v>14.94265447906772</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.01010732422836</v>
+        <v>19.03195288503845</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_88/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_88/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.70619329725741</v>
+        <v>21.7241685298673</v>
       </c>
       <c r="C2">
-        <v>14.4909633698582</v>
+        <v>14.55480290789621</v>
       </c>
       <c r="D2">
-        <v>4.477272852686781</v>
+        <v>4.809378516932875</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.33687627677802</v>
+        <v>15.40182205757071</v>
       </c>
       <c r="G2">
-        <v>23.67168218289414</v>
+        <v>18.12177171769028</v>
       </c>
       <c r="H2">
-        <v>13.03675337168901</v>
+        <v>7.598100473227413</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.96841794683468</v>
+        <v>6.722735685158589</v>
       </c>
       <c r="M2">
-        <v>14.74867058625313</v>
+        <v>12.48176697669444</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.15831243127248</v>
+        <v>11.99404381944305</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.07629987912296</v>
+        <v>20.29888642156044</v>
       </c>
       <c r="C3">
-        <v>14.37572802513451</v>
+        <v>14.1800638827413</v>
       </c>
       <c r="D3">
-        <v>4.402320590760076</v>
+        <v>4.608710301773514</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.39530775670628</v>
+        <v>15.0991069038471</v>
       </c>
       <c r="G3">
-        <v>23.76620978859924</v>
+        <v>17.73798427791856</v>
       </c>
       <c r="H3">
-        <v>13.09548705294023</v>
+        <v>7.677675260826164</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.99141817284869</v>
+        <v>6.683361175708981</v>
       </c>
       <c r="M3">
-        <v>14.61902162110279</v>
+        <v>11.86052204356345</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.25513350257224</v>
+        <v>12.01888819164699</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.6750328188273</v>
+        <v>19.37191577347419</v>
       </c>
       <c r="C4">
-        <v>14.305666470245</v>
+        <v>13.94749693326185</v>
       </c>
       <c r="D4">
-        <v>4.355212562583664</v>
+        <v>4.480634082650595</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.43867056577712</v>
+        <v>14.93108833346881</v>
       </c>
       <c r="G4">
-        <v>23.83547918707503</v>
+        <v>17.53347565207632</v>
       </c>
       <c r="H4">
-        <v>13.13418788079078</v>
+        <v>7.733337263177718</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.00732654062118</v>
+        <v>6.663125988779224</v>
       </c>
       <c r="M4">
-        <v>14.54048877328303</v>
+        <v>11.46523882844316</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.32006879799615</v>
+        <v>12.05048425889564</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.50807138925405</v>
+        <v>18.9810850857109</v>
       </c>
       <c r="C5">
-        <v>14.27731210105228</v>
+        <v>13.85221157698797</v>
       </c>
       <c r="D5">
-        <v>4.335756732134951</v>
+        <v>4.427264111165572</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.45821541247282</v>
+        <v>14.86708965588549</v>
       </c>
       <c r="G5">
-        <v>23.86650950566243</v>
+        <v>17.45786437368233</v>
       </c>
       <c r="H5">
-        <v>13.15062174086928</v>
+        <v>7.757656684463192</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.01425840595383</v>
+        <v>6.65585372241761</v>
       </c>
       <c r="M5">
-        <v>14.50878228266646</v>
+        <v>11.30085282084098</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.34790548338527</v>
+        <v>12.06727449689719</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.48014629143442</v>
+        <v>18.91539657138255</v>
       </c>
       <c r="C6">
-        <v>14.27261636913073</v>
+        <v>13.83636191162715</v>
       </c>
       <c r="D6">
-        <v>4.332510899375257</v>
+        <v>4.418332392385241</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.46157375860825</v>
+        <v>14.85673173469053</v>
       </c>
       <c r="G6">
-        <v>23.87183068261236</v>
+        <v>17.44577187297777</v>
       </c>
       <c r="H6">
-        <v>13.15339060003992</v>
+        <v>7.761791670344185</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.01543655735379</v>
+        <v>6.654704447608924</v>
       </c>
       <c r="M6">
-        <v>14.5035361083456</v>
+        <v>11.27336275470132</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.35261065473207</v>
+        <v>12.0702932051024</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.67279476053798</v>
+        <v>19.36669792189987</v>
       </c>
       <c r="C7">
-        <v>14.30528324984317</v>
+        <v>13.94621380615743</v>
       </c>
       <c r="D7">
-        <v>4.354951203408718</v>
+        <v>4.479919020565688</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.4389265774679</v>
+        <v>14.93020716587841</v>
       </c>
       <c r="G7">
-        <v>23.83588635472699</v>
+        <v>17.53242481743503</v>
       </c>
       <c r="H7">
-        <v>13.13440682982523</v>
+        <v>7.73365871132321</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.00741820800097</v>
+        <v>6.663023993639351</v>
       </c>
       <c r="M7">
-        <v>14.54005993396585</v>
+        <v>11.46303498927394</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.32043865205361</v>
+        <v>12.05069510661038</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.49213312342483</v>
+        <v>21.2434606644101</v>
       </c>
       <c r="C8">
-        <v>14.45109953723313</v>
+        <v>14.42617065060217</v>
       </c>
       <c r="D8">
-        <v>4.451663408048644</v>
+        <v>4.741223084137937</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.35546513478113</v>
+        <v>15.29373706676778</v>
       </c>
       <c r="G8">
-        <v>23.70193242752932</v>
+        <v>17.98293387143609</v>
       </c>
       <c r="H8">
-        <v>13.05645695417358</v>
+        <v>7.624080314565161</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.97597768704027</v>
+        <v>6.708331475227053</v>
       </c>
       <c r="M8">
-        <v>14.70376125345651</v>
+        <v>12.27052862464172</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.19055476764776</v>
+        <v>11.9991022947785</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.97599246812173</v>
+        <v>24.51490887108043</v>
       </c>
       <c r="C9">
-        <v>14.74157425103071</v>
+        <v>15.34325395546986</v>
       </c>
       <c r="D9">
-        <v>4.632086420997502</v>
+        <v>5.213372821748623</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.25152033527904</v>
+        <v>16.14800198977789</v>
       </c>
       <c r="G9">
-        <v>23.52921905097303</v>
+        <v>19.11537859100857</v>
       </c>
       <c r="H9">
-        <v>12.92454827597528</v>
+        <v>7.466680104494744</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.92849684508727</v>
+        <v>6.829152540110567</v>
       </c>
       <c r="M9">
-        <v>15.03209462964858</v>
+        <v>13.76629502214344</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.97959437726111</v>
+        <v>12.03607349314712</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.98262302469348</v>
+        <v>26.67300332653927</v>
       </c>
       <c r="C10">
-        <v>14.95643650700325</v>
+        <v>15.99692161534369</v>
       </c>
       <c r="D10">
-        <v>4.75825128703968</v>
+        <v>5.533907444485649</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.21195074082173</v>
+        <v>16.86029429667506</v>
       </c>
       <c r="G10">
-        <v>23.45825104729318</v>
+        <v>20.09863963245501</v>
       </c>
       <c r="H10">
-        <v>12.84043256773546</v>
+        <v>7.391179459632041</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.90225422584935</v>
+        <v>6.938285670311963</v>
       </c>
       <c r="M10">
-        <v>15.27616670910737</v>
+        <v>14.94067325544303</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.8515468459676</v>
+        <v>12.1585424019018</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.42101265523124</v>
+        <v>27.60239997058735</v>
       </c>
       <c r="C11">
-        <v>15.05421826370699</v>
+        <v>16.28894664459796</v>
       </c>
       <c r="D11">
-        <v>4.814109621368378</v>
+        <v>5.673728160375281</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.2020033240056</v>
+        <v>17.20213106166622</v>
       </c>
       <c r="G11">
-        <v>23.43830079486467</v>
+        <v>20.5779599616884</v>
       </c>
       <c r="H11">
-        <v>12.80495087477693</v>
+        <v>7.366728655030749</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.89219143357415</v>
+        <v>6.992517272218471</v>
       </c>
       <c r="M11">
-        <v>15.38747347858482</v>
+        <v>15.44780740913765</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.79920425900258</v>
+        <v>12.23713144009765</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.58411680271461</v>
+        <v>27.94689181573622</v>
       </c>
       <c r="C12">
-        <v>15.09122794981791</v>
+        <v>16.39869189542921</v>
       </c>
       <c r="D12">
-        <v>4.835029392180454</v>
+        <v>5.725795664173899</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.19939802161041</v>
+        <v>17.33407726167495</v>
       </c>
       <c r="G12">
-        <v>23.43253227416837</v>
+        <v>20.76397108263323</v>
       </c>
       <c r="H12">
-        <v>12.79191564846684</v>
+        <v>7.358995298961639</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.88865039138701</v>
+        <v>7.013724409122665</v>
       </c>
       <c r="M12">
-        <v>15.42963330105317</v>
+        <v>15.63598486902573</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.78023766700039</v>
+        <v>12.2703429751603</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.54911995010651</v>
+        <v>27.87302946471987</v>
       </c>
       <c r="C13">
-        <v>15.08325843640791</v>
+        <v>16.37509462388853</v>
       </c>
       <c r="D13">
-        <v>4.830534470592763</v>
+        <v>5.71462135856699</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.19990741406563</v>
+        <v>17.30555008751652</v>
       </c>
       <c r="G13">
-        <v>23.43369500792378</v>
+        <v>20.72371173166954</v>
       </c>
       <c r="H13">
-        <v>12.79470517476153</v>
+        <v>7.360591287535641</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.88940103377571</v>
+        <v>7.009127066954628</v>
       </c>
       <c r="M13">
-        <v>15.42055343478746</v>
+        <v>15.59562872825745</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.78428438304974</v>
+        <v>12.26303433854654</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.43449003712825</v>
+        <v>27.63089039929993</v>
       </c>
       <c r="C14">
-        <v>15.0572635724355</v>
+        <v>16.2979926325787</v>
       </c>
       <c r="D14">
-        <v>4.815835430113868</v>
+        <v>5.678029501848036</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.20176568816976</v>
+        <v>17.21293660703955</v>
       </c>
       <c r="G14">
-        <v>23.43779035217497</v>
+        <v>20.59317358827376</v>
       </c>
       <c r="H14">
-        <v>12.80387041955179</v>
+        <v>7.366061249577532</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.89189470923264</v>
+        <v>6.994248490306215</v>
       </c>
       <c r="M14">
-        <v>15.39094195284247</v>
+        <v>15.4633661009381</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.79762671405183</v>
+        <v>12.23979372078352</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.36389507012609</v>
+        <v>27.48160523927495</v>
       </c>
       <c r="C15">
-        <v>15.04133790006251</v>
+        <v>16.25065428822951</v>
       </c>
       <c r="D15">
-        <v>4.806801215331721</v>
+        <v>5.655500922553498</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.2030552920982</v>
+        <v>17.15653190643442</v>
       </c>
       <c r="G15">
-        <v>23.44053182429956</v>
+        <v>20.51379838761338</v>
       </c>
       <c r="H15">
-        <v>12.80953663040731</v>
+        <v>7.369613554454069</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.89345725223353</v>
+        <v>6.985222612742141</v>
       </c>
       <c r="M15">
-        <v>15.3728045439377</v>
+        <v>15.38184937719136</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.80591069352579</v>
+        <v>12.22601223504216</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.95357165625647</v>
+        <v>26.61121832483991</v>
       </c>
       <c r="C16">
-        <v>14.95004499569094</v>
+        <v>15.9777234889023</v>
       </c>
       <c r="D16">
-        <v>4.754568900194009</v>
+        <v>5.524647634171741</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.21276320378194</v>
+        <v>16.83830769221343</v>
       </c>
       <c r="G16">
-        <v>23.45980415674254</v>
+        <v>20.06795090929862</v>
       </c>
       <c r="H16">
-        <v>12.84280744252628</v>
+        <v>7.392985186503479</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.90294957606562</v>
+        <v>6.934834781379458</v>
       </c>
       <c r="M16">
-        <v>15.26889560084218</v>
+        <v>14.90698833000437</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.85508684867186</v>
+        <v>12.15388092021487</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.6967758162263</v>
+        <v>26.06391272821502</v>
       </c>
       <c r="C17">
-        <v>14.8940329141793</v>
+        <v>15.80887003916177</v>
       </c>
       <c r="D17">
-        <v>4.72212432266775</v>
+        <v>5.442824646515732</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.22078413467264</v>
+        <v>16.64760672316723</v>
       </c>
       <c r="G17">
-        <v>23.47479570512759</v>
+        <v>19.80257232330359</v>
       </c>
       <c r="H17">
-        <v>12.86393130893725</v>
+        <v>7.409929156108476</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.90925300263856</v>
+        <v>6.90510646656934</v>
       </c>
       <c r="M17">
-        <v>15.20520076485092</v>
+        <v>14.60875857338991</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.88677131040249</v>
+        <v>12.11560956360157</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.5472399012339</v>
+        <v>25.74418663090663</v>
       </c>
       <c r="C18">
-        <v>14.86182141438532</v>
+        <v>15.71125189351365</v>
       </c>
       <c r="D18">
-        <v>4.703319273850651</v>
+        <v>5.395199027087501</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.22615540297813</v>
+        <v>16.53960104476391</v>
       </c>
       <c r="G18">
-        <v>23.48457870664582</v>
+        <v>19.65295566072378</v>
       </c>
       <c r="H18">
-        <v>12.87634309901226</v>
+        <v>7.420599832554401</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.91305507157438</v>
+        <v>6.888438605723615</v>
       </c>
       <c r="M18">
-        <v>15.1685930208656</v>
+        <v>14.4346719727152</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.90555106364011</v>
+        <v>12.095741348571</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.49629783954213</v>
+        <v>25.63508385674619</v>
       </c>
       <c r="C19">
-        <v>14.85091677221109</v>
+        <v>15.67811683895901</v>
       </c>
       <c r="D19">
-        <v>4.696927885347845</v>
+        <v>5.378977691323543</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.22810405578979</v>
+        <v>16.50332262325394</v>
       </c>
       <c r="G19">
-        <v>23.48808991684674</v>
+        <v>19.60282001282187</v>
       </c>
       <c r="H19">
-        <v>12.88059047751364</v>
+        <v>7.424368531731153</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.91437270432498</v>
+        <v>6.882868834989954</v>
       </c>
       <c r="M19">
-        <v>15.15620395172276</v>
+        <v>14.37528987056002</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.91200485152608</v>
+        <v>12.08937747083877</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.72430270011761</v>
+        <v>26.12268409157855</v>
       </c>
       <c r="C20">
-        <v>14.89999513456758</v>
+        <v>15.82689687535361</v>
       </c>
       <c r="D20">
-        <v>4.725593072877668</v>
+        <v>5.451593274638659</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.21985182992863</v>
+        <v>16.66773368067615</v>
       </c>
       <c r="G20">
-        <v>23.47307964797385</v>
+        <v>19.83051026346275</v>
       </c>
       <c r="H20">
-        <v>12.86165552627315</v>
+        <v>7.408028979832412</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.90856372522611</v>
+        <v>6.908226396974533</v>
       </c>
       <c r="M20">
-        <v>15.2119785218031</v>
+        <v>14.64076961215013</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.8833408970825</v>
+        <v>12.11946045570263</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.46823913708468</v>
+        <v>27.70221410192516</v>
       </c>
       <c r="C21">
-        <v>15.0648995756765</v>
+        <v>16.32066263535932</v>
       </c>
       <c r="D21">
-        <v>4.820159297705676</v>
+        <v>5.688801411814358</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.20118832047323</v>
+        <v>17.24007207708082</v>
       </c>
       <c r="G21">
-        <v>23.43653888305844</v>
+        <v>20.63139446698102</v>
       </c>
       <c r="H21">
-        <v>12.80116747818271</v>
+        <v>7.364412346765384</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.89115494287815</v>
+        <v>6.998600397368413</v>
       </c>
       <c r="M21">
-        <v>15.39963951534959</v>
+        <v>15.50231940097066</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.79368452010938</v>
+        <v>12.24652515797249</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.93748084955352</v>
+        <v>28.69113851157732</v>
       </c>
       <c r="C22">
-        <v>15.17255750582746</v>
+        <v>16.63845375077435</v>
       </c>
       <c r="D22">
-        <v>4.880603183511375</v>
+        <v>5.838698206656549</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.1957620172745</v>
+        <v>17.62867175980004</v>
       </c>
       <c r="G22">
-        <v>23.42307306881672</v>
+        <v>21.18101231409305</v>
       </c>
       <c r="H22">
-        <v>12.76397226726849</v>
+        <v>7.344849089644826</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.88134816266319</v>
+        <v>7.06157974033364</v>
       </c>
       <c r="M22">
-        <v>15.52233376048807</v>
+        <v>16.04289259850396</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.74007130702717</v>
+        <v>12.34975272203929</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.68861773687623</v>
+        <v>28.16727542073599</v>
       </c>
       <c r="C23">
-        <v>15.11511694301634</v>
+        <v>16.46931365960587</v>
       </c>
       <c r="D23">
-        <v>4.848471386543288</v>
+        <v>5.759170014606923</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.19803766538405</v>
+        <v>17.41995852488801</v>
       </c>
       <c r="G23">
-        <v>23.42930337696423</v>
+        <v>20.8853103231182</v>
       </c>
       <c r="H23">
-        <v>12.7836099483501</v>
+        <v>7.354437228813132</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.88643854603946</v>
+        <v>7.027604744656369</v>
       </c>
       <c r="M23">
-        <v>15.45685490918886</v>
+        <v>15.75642508932578</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.76822816573546</v>
+        <v>12.29276161326432</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.71186370833373</v>
+        <v>26.09612936451002</v>
       </c>
       <c r="C24">
-        <v>14.89729964220689</v>
+        <v>15.81874862553986</v>
       </c>
       <c r="D24">
-        <v>4.724025324158154</v>
+        <v>5.447630797031422</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.22027095806581</v>
+        <v>16.65862919879688</v>
       </c>
       <c r="G24">
-        <v>23.47385185212836</v>
+        <v>19.81787031494461</v>
       </c>
       <c r="H24">
-        <v>12.86268357473326</v>
+        <v>7.408885162511145</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.90887479263196</v>
+        <v>6.906814558680291</v>
       </c>
       <c r="M24">
-        <v>15.20891426053707</v>
+        <v>14.62630561691289</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.88489003069503</v>
+        <v>12.11771283134036</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.58870228010518</v>
+        <v>23.67329253976819</v>
       </c>
       <c r="C25">
-        <v>14.66264321265982</v>
+        <v>15.09833026749642</v>
       </c>
       <c r="D25">
-        <v>4.584346748626676</v>
+        <v>5.090162158236234</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.27320239470431</v>
+        <v>15.90186344147745</v>
       </c>
       <c r="G25">
-        <v>23.56619251558729</v>
+        <v>18.78226715511975</v>
       </c>
       <c r="H25">
-        <v>12.95798758444864</v>
+        <v>7.502596839099278</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.93982397582363</v>
+        <v>6.792948888639804</v>
       </c>
       <c r="M25">
-        <v>14.94265447906772</v>
+        <v>13.35422944297452</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.03195288503845</v>
+        <v>12.01010732422836</v>
       </c>
     </row>
   </sheetData>
